--- a/PRODUTOS/Bazar/Bazar - Descartaveis.xlsx
+++ b/PRODUTOS/Bazar/Bazar - Descartaveis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Papel Toalha Yuri Fit Un 100fls</t>
+          <t>Guardanapos De Papel Snob Grande C/50un.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac45fa50-7c1b-42e2-b23c-4ca9f96f744f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2df18dd-9c4b-47b8-a855-f3f91f1b1a48.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7896110081250</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Papel Toalha Kitchen 120 Folhas</t>
+          <t>Fosforo Fiat Lux Casa 6 Uni.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e71dee63-afe7-44a0-9814-77e69edb63e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77da8ca1-c786-4407-8226-eb5837e271db.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896007902217</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Filtro De Papel Brigitta 103 C/30un</t>
+          <t>Papel Toalha Snob Branca</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 9,79</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70b66b17-63ce-40f1-9bb5-a43c010e7e6a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eed7c334-35d2-4ffa-956c-2e13d3505ddc.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7896110012148</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Filtro De Papel 3 Coracoes 103 C/ 30uni.</t>
+          <t>Assadeira Pratsy 7l</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5b968f1e-c0b5-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c2e9445-a3eb-4238-a8cf-373e5dab165f.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7896300500820</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Guardanapo Sorella Un 22cm X 23cm</t>
+          <t>Filtro De Papel Melitta 103 Aroma Max Com 30un</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 4,29</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3029970d-ff4f-4a35-ad92-df76ba1bd1ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cf9432e-a87a-4db8-b558-e377dfb2081c.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891021002127</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Filtro De Papel Brigitta 102 C/30un</t>
+          <t>Filtro Longa Vida P/cafe Tam 102</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 6,29</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec42c6a0-af3a-4dc8-bce7-0cae898c987f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad5a82c-99ba-4eed-adff-5f83548d3768.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896900210198</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Filtro De Papel Melitta 103 Aroma Max Com 30un</t>
+          <t>Filtro Longa Vida P/cafe Tam 103</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0cf9432e-a87a-4db8-b558-e377dfb2081c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20629f42-dba1-48d6-a29c-258a578360ab.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896900210198</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Papel Aluminio Pratsy 7,5m X 30cm</t>
+          <t>Fosforo Pinheiro C/10cx</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86322a0-93b2-4bc1-bb62-c111b6ca4eb8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d48db97-e41a-46c5-a1fa-e862ecbfdfc8.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896080900148</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Filtro De Papel Melitta 102 Aroma Max Com 30un</t>
+          <t>Fosforo Fiat Lux Extra Longos 50un</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 7,29</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/23b1d081-82af-4439-b824-885ca84c295d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7baaefd-747b-4d7c-827e-800f85efe9c0.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896007941254</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Papel Toalha Snob Branca</t>
+          <t>Folha De Aluminio Pratsy 30cm X 4m</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 9,79</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eed7c334-35d2-4ffa-956c-2e13d3505ddc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c2e0a6a-e567-431c-886a-19dff81f1f78.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7896300500011</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Papel Toalha Mascot 120folhas</t>
+          <t>Filme De Pvc Pratsy 15 Metros</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0f47501c-65ba-4c84-a906-81714ab72a89.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2d2f972-ac80-4092-a8e4-b5dbdaca829c.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7896300500073</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Papel Toalha Kitchen Jumbo Leve 240 Folhas</t>
+          <t>Filme De Pvc Pratsy 30 Metros</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64002b43-fd54-4ae2-93f8-fbbb463c9da2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c602fa4-6893-465c-9301-9cdc60679174.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7896300500080</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Filtro De Papel 3 Coracoes 102 C/ 30uni.</t>
+          <t>Sacos Freezer/micro Pratsy 20x33cm 2l</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 6,69</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa9d60d8-57ca-44a8-ac33-3324baf9dc4b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f432f0f-50ab-4f56-8225-3ac8671432e0.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7896300500769</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Guardanapo Sorella Un 30cm X 30,5cm</t>
+          <t>Sacos Freezer/micro Pratsy 23x36cm 3l</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,49</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba28939c-738f-4427-a39e-d5a65375641a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/657e3a8a-cc85-41cb-b802-bc96ff4262e3.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7896300500776</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Papel Aluminio Pratsy 7,5m/45cm</t>
+          <t>Sacos Freezer/micro Pratsy 28x40cm 5l</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed02c25f-8087-4023-86ef-5b2df91d598b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be11e5d1-0b8e-4f65-89d5-5d060f0f172d.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7896300500783</t>
         </is>
       </c>
     </row>
@@ -866,7 +946,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Guardanapos De Papel Snob Branco Pq</t>
+          <t>Fosforo Parana Forno E Fogao 200 Pali</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -876,7 +956,12 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/813a61e0-f910-485d-9038-9d6f0e5c33d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43e387e0-4c1b-4dd6-adaa-53f19957e6b9.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7896080900148</t>
         </is>
       </c>
     </row>
@@ -906,6 +991,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aecabbcb-de90-4b7c-b11d-13bd0889ed02.jpg</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7896110012148</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Guardanapo Yuri Folha Simples 22,5x22cm 50 Folhas</t>
+          <t>Guardanapos De Papel Snob Branco Pq</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 4,79</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fa0054d-a9e7-4176-91fd-f7e8c66b932e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/813a61e0-f910-485d-9038-9d6f0e5c33d0.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896110081250</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Pratsy 30cm X 4m</t>
+          <t>Papel Aluminio Pratsy 7,5m X 30cm</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c2e0a6a-e567-431c-886a-19dff81f1f78.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b86322a0-93b2-4bc1-bb62-c111b6ca4eb8.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896300500011</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Life Clean 30x4.0</t>
+          <t>Coador De Algodao 1 Un - Aroma &amp; Sabor</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5bfb6baf-9c0e-4ab9-8e6b-2e8b2b8dc4d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58e82160-e46e-47df-967a-bc04aa634286.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896942267006</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Filme De Pvc Life Clean 28cmx30m</t>
+          <t>Prato Laminado Festa Ali N 5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/41c95015-2497-40d2-8fcb-b0f8668b58a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c72de6ce-aa9a-4c3b-a177-e9faca819748.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7897991607218</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Life Clean 30x7,5</t>
+          <t>Band Laminada Festa Ali N 04</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 6,98</t>
+          <t>R$ 4,89</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/45fb310b-aba0-4de8-bc09-bdd14d7f2509.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7897991607225</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Guardanapos De Papel Mascot 22,5x22</t>
+          <t>Band Laminada Festa Ali N 05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/540f2371-afed-49c0-8818-1bf4de0b0b21.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7897991607225</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Filme De Pvc Pratsy 30 Metros</t>
+          <t>Band Laminada Festa Ali N 06</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c602fa4-6893-465c-9301-9cdc60679174.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7897991607225</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Papel Toalha Kitchen Jumbo Leve 360 Pague 330 Folhas</t>
+          <t>Band Laminada Festa Ali N 07</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5ffd54e-9d79-4ce2-96e7-04d4e5e32a91.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7897991610003</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Filme De Pvc Life Clean 28cmx15m</t>
+          <t>Convite Cha Bebe Festa Ali</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 6,49</t>
+          <t>R$ 0,43</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/461bf515-673b-4dda-948c-11604f744722.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7897991607300</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Palito P/ Dente Gina 100un</t>
+          <t>Convite Cha Cozinha Festa Ali</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 4,69</t>
+          <t>R$ 2,59</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c29de14d-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7897991607300</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Toalha De Papel Sorella Un C/200 Folhas</t>
+          <t>Saco Mono Pipoca Festa Ali Un</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3700de1d-a0ad-4c60-9f16-ffbd6ac1eb18.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7897991607126</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Guardanapos De Papel Snob Grande C/50un.</t>
+          <t>Palito Sorv Festa Ali C/50</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,29</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f2df18dd-9c4b-47b8-a855-f3f91f1b1a48.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7897991607751</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sacos Freezer/micro Pratsy 20x33cm 2l</t>
+          <t>Canudos Festa Ali Un Milk Shake</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9f432f0f-50ab-4f56-8225-3ac8671432e0.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7897991608031</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Papel Manteiga Life Clean 30x7,5</t>
+          <t>Vela Festa Ali Estrelinha Un</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03392ff7-9786-4b15-9539-677da8864fe7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f76349aa-612d-4870-9157-e4f314663f31.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7897991607867</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Saco P/ Freez Life Clean 19,5cmx34cm 2l</t>
+          <t>Vela Parafina Festa Ali Un Ponto ?</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a67d120-8192-4c3d-8a37-2fa547ccdaeb.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7898176832388</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Filme De Pvc Pratsy 15 Metros</t>
+          <t>Vela Festa Ali Un Vulcao</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2d2f972-ac80-4092-a8e4-b5dbdaca829c.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7897991607867</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Protetor De Fogao Pratsy 26x26 C/ 12un</t>
+          <t>Garfo Ref Festa Ali C/10 Cristal</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/639fbcf1-d493-4e11-842e-6cb1b24efd34.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5973802-107e-4378-9486-baa41206bbe0.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7897991607409</t>
         </is>
       </c>
     </row>
@@ -1379,17 +1554,22 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sacos Freezer/micro Pratsy 23x36cm 3l</t>
+          <t>Garfo Ref Festa Ali C/30 Cristal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/657e3a8a-cc85-41cb-b802-bc96ff4262e3.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7897991607423</t>
         </is>
       </c>
     </row>
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Life Clean 45x4</t>
+          <t>Balao Latex Festa Ali F Aniv N07</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4690ff72-a282-4a2d-9809-b781f93e2f20.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7897991607522</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Toalha De Papel Sorella C/3 Un 360 Folhas</t>
+          <t>Copo Festa Ali Bco 100ml</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 1,98</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82342339-9742-4323-ac76-3f19ab009ad1.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7897991607676</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1650,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Pratsy 45cm X 4m</t>
+          <t>Garfo Especial Ref Festa Ali C/20</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1470,7 +1660,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c123deef-3db8-4909-9d09-a2de90812255.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7897991608550</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Saco P/ Freez Life Clean 22,5cmx37cm 3l</t>
+          <t>Assadeira Refr Ret C/tampa 1,5l</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 41,98</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a20925b5-5192-4182-918f-36c7d48b6504.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1b1a04e-c3e9-41ae-9b4f-08fd4cee2193.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7891155019497</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Fosforo Pinheiro C/10cx</t>
+          <t>Balao Latex Festa Ali Nº07 Liso Cores</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 2,98</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7d48db97-e41a-46c5-a1fa-e862ecbfdfc8.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7897991610096</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Fosforo Fiat Lux Extra Longos 50un</t>
+          <t>Balao Latex N7 Festa Ali Amar</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7baaefd-747b-4d7c-827e-800f85efe9c0.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7897991610195</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Palito P/ Dente Gina 200un</t>
+          <t>Colher Festa Ali Bco 24un</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 5,69</t>
+          <t>R$ 4,98</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2122692-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7897991610263</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fosforo Fiat Lux Casa 6 Uni.</t>
+          <t>Colher Festa Ali Cristal 24un</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/77da8ca1-c786-4407-8226-eb5837e271db.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7897991610263</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Life Clean 45x7,5</t>
+          <t>Colher Festa Ali Rosa 24un</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aacb730f-27b9-4927-b835-086d3528a748.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7897991610249</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Copo Descartavel Copomais 200ml C/100un</t>
+          <t>Garfo Festa Ali Azul 24un</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 11,98</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70de47a8-6187-4757-bd0c-fe8d626f3722.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7897991610294</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Vela Palito Branca Jaragua N8</t>
+          <t>Garfo Festa Ali Bco 24un</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daefdd67-1c5f-4c2f-a8a0-1ebf61925a39.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7897991610270</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coador De Algodao 1 Un - Aroma &amp; Sabor</t>
+          <t>Copo Festa Ali 200ml Azul</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/58e82160-e46e-47df-967a-bc04aa634286.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7897991607645</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Vela Palito Branca Jaragua N2</t>
+          <t>Copo Festa Ali 200ml Bco</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/521cbdba-0e4d-4727-b622-0257d84b6cc8.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7897991607645</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bobina P/freezer E Micro 25x33 Cm</t>
+          <t>Copo Festa Ali 200ml Verm</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eaf857a2-1cb5-40e9-9d8a-63099e6e1d79.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7897991607645</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fosforo Parana Gigante 50</t>
+          <t>Forma Festa Ali Brig Nº6 Rosa</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d62545e-34f8-4826-ae7a-66ae1c2b47b3.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7897991608741</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Papel Manteiga Pratsy Paper</t>
+          <t>Forma Festa Ali Brig Nº6 Azul</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ad562af-f1ad-4a9e-9f43-0b9834abc4be.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7897991608758</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Prato Descartavel Bolo Trik 15cm C/10 Verde</t>
+          <t>Forma Festa Ali Brig Nº06 Branco</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d01f8110-6a03-45a5-b3ee-b201da046326.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7897991608734</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Vela Palito Branca Jaragua N4</t>
+          <t>Vela Palito Festa Ali Un Azul</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb957ccb-4224-4cce-b863-cb05aa3de6b2.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7897991609564</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sacos Freezer/micro Pratsy 28x40cm 5l</t>
+          <t>Vela Palito Festa Ali Un Branca</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/be11e5d1-0b8e-4f65-89d5-5d060f0f172d.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7897991609540</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Copo Descartavel Copomais 180ml C/100un</t>
+          <t>Vela Palito Festa Ali Rosa</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3fdbb84-1bfe-42b4-9d41-80a6f5067754.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7897991609557</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Fosforo Parana Longo Eco Familia 300</t>
+          <t>Garfo Ref Festa Ali Bco C/10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30e7149d-2c9b-402a-903e-a353e15dced9.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7897991609960</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Copo Descartavel Copomais 300ml C/100un</t>
+          <t>Garfo Ref Festa Ali Brc C/30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d52e55f-aa5e-47e3-827f-46b4182c680f.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7897991609960</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Prato Descartavel Bolo Trik 15cm C/10 Preto</t>
+          <t>Prato Laminado Festa Ali N 4</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 3,98</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a3c17ea-c6ee-4199-9b84-749e3dfb920d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2084cad-5d48-4cec-9c5a-11add6c7a0b9.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7897991610126</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Copo Descartavel Econopot 200ml C/100un</t>
+          <t>Fosforo Parana Longo Eco Familia 300</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 7,89</t>
+          <t>R$ 7,49</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/170bca26-abbb-40ca-908a-a7e1af66c223.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30e7149d-2c9b-402a-903e-a353e15dced9.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896080900216</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Assadeira Aluminio Oval Life Clean 7l</t>
+          <t>Fosforo Parana Gigante 50</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74621d9c-5238-4731-8fc0-942a61c43e66.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8d62545e-34f8-4826-ae7a-66ae1c2b47b3.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896080900285</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Filtro Longa Vida P/cafe Tam 102</t>
+          <t>Copo Desc Festa-ali 200ml 50x200ml</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bad5a82c-99ba-4eed-adff-5f83548d3768.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7897991610393</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Fosforo Parana Forno E Fogao 200 Pali</t>
+          <t>Rolo Adesivo Scotch Brite Refil</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43e387e0-4c1b-4dd6-adaa-53f19957e6b9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42b6140a-314c-4082-b6e0-72835e79aa23.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7891040102518</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Copo Descartavel Econopot 50ml C/100un</t>
+          <t>Corante Liquido Rosa Festa Ali 10ml</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6aa7415-de40-4dd3-b3b1-b9ca7aed4048.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7897991610508</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Saco Zip Life Clean 27cmx31cm</t>
+          <t>Corante Liquido Azul Festa Ali 10ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b7da3e9-117a-4a76-b31c-2fb1a01bdbbd.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7897991610485</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Folha De Aluminio Wyda 7,5x30cm</t>
+          <t>Corante Liquido Amarelo Festa Ali 10ml</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7897991610485</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Filtro Longa Vida P/cafe Tam 103</t>
+          <t>Corante Liquido Vermelho Festa Ali 10ml</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20629f42-dba1-48d6-a29c-258a578360ab.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7897991610515</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Palito De Dente Paraná Menta C 250 Und</t>
+          <t>Vela Palito Branca Jaragua N2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 7,98</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5af0be0b-2e16-44cb-a382-0491725b50b5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/521cbdba-0e4d-4727-b622-0257d84b6cc8.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896972700023</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Saco Zip Life Clean 18cmx23cm</t>
+          <t>Vela Palito Branca Jaragua N4</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20b34198-528b-45b9-a15e-ed0605262e45.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bb957ccb-4224-4cce-b863-cb05aa3de6b2.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896972700047</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Prato Desc Bolo Trik 15cm C/10 Rosa</t>
+          <t>Vela Palito Branca Jaragua N8</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 10,98</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fc4c9b0-c4bb-4a45-ba4d-6cb34f5f9313.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/daefdd67-1c5f-4c2f-a8a0-1ebf61925a39.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896972700825</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Protetor De Fogão Pratsy 5 Bocas</t>
+          <t>Coador De Pano P/cafe Use Util</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/afd839db-38c6-4a9d-8007-40e3d67f09b3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e21c224e-ce31-4a0b-9294-e5c3eeaed55f.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7896771220241</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Coador De Pano P/cafe Use Util</t>
+          <t>Filtro De Papel Brigitta 102 C/30un</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 6,29</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e21c224e-ce31-4a0b-9294-e5c3eeaed55f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec42c6a0-af3a-4dc8-bce7-0cae898c987f.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7891021002127</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Vela Festa Ali Estrelinha Un</t>
+          <t>Filtro De Papel Brigitta 103 C/30un</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 6,49</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f76349aa-612d-4870-9157-e4f314663f31.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70b66b17-63ce-40f1-9bb5-a43c010e7e6a.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7891021002127</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Assadeira Aluminio Oval Life Clean 4l</t>
+          <t>Bobina P/freezer E Micro 25x33 Cm</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0993a6e7-fe20-4103-9e2a-6e6def982c89.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eaf857a2-1cb5-40e9-9d8a-63099e6e1d79.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7898415550950</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Prato Descartavel Bio Trik C/10un 22cm Branco</t>
+          <t>Papel Toalha Yuri Fit Un 100fls</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 12,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03a5073f-9ec1-476a-9ed4-c9f6cae9ee14.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ac45fa50-7c1b-42e2-b23c-4ca9f96f744f.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7896075300632</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Rolo Adesivo Scotch Brite Refil</t>
+          <t>Balao Latex Festa Ali Nº07 Laranja</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/42b6140a-314c-4082-b6e0-72835e79aa23.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbaa2982-a787-4156-ab26-64feffc21b67.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7897991610225</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Garfo Ref Festa Ali C/10 Cristal</t>
+          <t>Palito P/ Dente Gina 100un</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,69</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5973802-107e-4378-9486-baa41206bbe0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c29de14d-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7896051020127</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Prato Descartavel Bio Trik C/10un 20cm Branco Fundo</t>
+          <t>Palito P/ Dente Gina 200un</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 9,98</t>
+          <t>R$ 5,69</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c2122692-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896051020158</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Garfo Festa Ali Bco 24un</t>
+          <t>Vela Big Festa Ali Nº2 Branca</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7897991608789</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Copo Descartavel Econopot 180ml C/100un</t>
+          <t>Vela Big Festa Ali Nº3 Branca</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 6,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7897991608796</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Garfo Ref Festa Ali Bco C/10</t>
+          <t>Vela Big Festa Ali Nº4 Branca</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7897991608802</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Colher Festa Ali Bco 24un</t>
+          <t>Vela Big Festa Ali Nº7 Azul</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7897991608932</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Corante Liquido Vermelho Festa Ali 10ml</t>
+          <t>Vela Big Festa Ali Nº8 Azul</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7897991608949</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Assa Churrasco Life Clean 45x4,0</t>
+          <t>Vela Big Festa Ali Nº9 Azul</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4c8c3475-80ce-4311-9266-d295f343f1da.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7897991608956</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Assadeira Alum Life Clean C/10 Ret 500ml</t>
+          <t>Vela Big Festa Ali Nº0 Rosa</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/61caba28-e31c-4088-9837-a4f9ab6ab396.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7897991609069</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Assadeira Aluminio Life Clean C/10 Retratil 750ml</t>
+          <t>Vela Big Festa Ali Nº1 Rosa</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9f9fcf9-0d06-4042-8872-485a78386356.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7897991608970</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Garfo Ref Festa Ali C/30 Cristal</t>
+          <t>Vela Big Festa Ali Nº2 Rosa</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7897991608987</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Garfo Especial Ref Festa Ali C/20</t>
+          <t>Vela Big Festa Ali Nº4 Rosa</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 9,69</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7897991609007</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Assadeira Refr Ret C/tampa 1,5l</t>
+          <t>Vela Big Festa Ali Nº5 Branca</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 41,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a1b1a04e-c3e9-41ae-9b4f-08fd4cee2193.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7897991608819</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Forma Festa Ali Brig Nº06 Branco</t>
+          <t>Vela Big Festa Ali Nº6 Branca</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7897991608826</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Copo Desc Festa-ali 200ml 50x200ml</t>
+          <t>Vela Big Festa Ali Nº6 Rosa</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7897991609021</t>
         </is>
       </c>
     </row>
@@ -2891,7 +3346,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº5 Branca</t>
+          <t>Vela Big Festa Ali Nº7 Branca</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2902,6 +3357,11 @@
       <c r="E92" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7897991608833</t>
         </is>
       </c>
     </row>
@@ -2918,7 +3378,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº3 Branca</t>
+          <t>Vela Big Festa Ali Nº7 Rosa</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2929,6 +3389,11 @@
       <c r="E93" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7897991609038</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Prato Desc Bio Trik Trik C/10un 20cm Branco</t>
+          <t>Vela Big Festa Ali Nº8 Branca</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df46bf54-c7b7-42ff-9da4-abd579bf92b0.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7897991608840</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Assadeira Pratsy 7l</t>
+          <t>Vela Big Festa Ali Nº8 Rosa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5c2e9445-a3eb-4238-a8cf-373e5dab165f.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7897991609045</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Saco Mono Pipoca Festa Ali Un</t>
+          <t>Vela Big Festa Ali Nº9 Rosa</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7897991609052</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Vela Festa Ali Un Vulcao</t>
+          <t>Vela Skin Nº0 Un Branca</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7897991609335</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Canudos Festa Ali Un Milk Shake</t>
+          <t>Vela Skin Nº1 Un Branca</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7897991609335</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Corante Liquido Rosa Festa Ali 10ml</t>
+          <t>Vela Skin Nº1 Un Rosa</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7897991609441</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Corante Liquido Azul Festa Ali 10ml</t>
+          <t>Vela Skin Nº2 Un Branca</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7897991609250</t>
         </is>
       </c>
     </row>
@@ -3134,7 +3634,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº4 Branca</t>
+          <t>Vela Skin Nº2 Un Rosa</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3145,6 +3645,11 @@
       <c r="E101" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7897991609458</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sacos P/assar Pratsy C/10 Un</t>
+          <t>Vela Skin Nº3 Un Azul</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92b3a901-65c3-4fd8-abdb-d867937aa203.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7897991609366</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Balao Latex Festa Ali Nº07 Liso Cores</t>
+          <t>Vela Skin Nº3 Un Rosa</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 2,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7897991609465</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Copo Festa Ali 200ml Verm</t>
+          <t>Vela Skin Nº4 Un Azul</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7897991609373</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Palito Sorv Festa Ali C/50</t>
+          <t>Vela Skin Nº4 Un Branca</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 5,29</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7897991609274</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Garfo Festa Ali Azul 24un</t>
+          <t>Vela Skin Nº4 Un Rosa</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7897991609472</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Copo Festa Ali 200ml Bco</t>
+          <t>Vela Skin Nº5 Un Azul</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7897991609380</t>
         </is>
       </c>
     </row>
@@ -3323,17 +3858,22 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Forma Festa Ali Brig Nº6 Azul</t>
+          <t>Vela Skin Nº5 Un Branca</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7897991609281</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Vela Palito Festa Ali Un Branca</t>
+          <t>Vela Skin Nº5 Un Rosa</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7897991609489</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Garfo Ref Festa Ali Brc C/30</t>
+          <t>Vela Skin Nº6 Un Azul</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7897991609397</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Corante Liquido Amarelo Festa Ali 10ml</t>
+          <t>Vela Skin Nº6 Un Rosa</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 7,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7897991609496</t>
         </is>
       </c>
     </row>
@@ -3431,7 +3986,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº1 Rosa</t>
+          <t>Vela Skin Nº7 Un Branca</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3442,6 +3997,11 @@
       <c r="E112" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7897991609304</t>
         </is>
       </c>
     </row>
@@ -3458,7 +4018,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Vela Skin Nº2 Un Branca</t>
+          <t>Vela Skin Nº7 Un Rosa</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3469,6 +4029,11 @@
       <c r="E113" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7897991609533</t>
         </is>
       </c>
     </row>
@@ -3485,7 +4050,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Vela Skin Nº4 Un Branca</t>
+          <t>Vela Skin Nº8 Un Azul</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3496,6 +4061,11 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7897991609410</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Prato Laminado Festa Ali N 4</t>
+          <t>Vela Skin Nº8 Un Rosa</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b2084cad-5d48-4cec-9c5a-11add6c7a0b9.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7897991609519</t>
         </is>
       </c>
     </row>
@@ -3539,7 +4114,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº2 Branca</t>
+          <t>Vela Skin Nº9 Un Branca</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3550,6 +4125,11 @@
       <c r="E116" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7897991609335</t>
         </is>
       </c>
     </row>
@@ -3566,7 +4146,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº6 Rosa</t>
+          <t>Vela Skin Nº6 Un Branca</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3577,6 +4157,11 @@
       <c r="E117" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7897991609298</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Vela Skin Nº4 Un Rosa</t>
+          <t>Copo Descartavel Copomais 180ml C/100un</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,69</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b3fdbb84-1bfe-42b4-9d41-80a6f5067754.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7897147500950</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Vela Skin Nº5 Un Rosa</t>
+          <t>Copo Descartavel Copomais 200ml C/100un</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,98</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/70de47a8-6187-4757-bd0c-fe8d626f3722.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7897147500943</t>
         </is>
       </c>
     </row>
@@ -3647,17 +4242,22 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Assadeira Aluminio Life Clean C/4 Retratil 1500ml</t>
+          <t>Copo Descartavel Copomais 300ml C/100un</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5d52e55f-aa5e-47e3-827f-46b4182c680f.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7897147500950</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Prato Laminado Festa Ali N 5</t>
+          <t>Copo Descartavel Econopot 180ml C/100un</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 6,98</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c72de6ce-aa9a-4c3b-a177-e9faca819748.jpg</t>
+          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7898965262396</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Vela Parafina Festa Ali Un Ponto ?</t>
+          <t>Copo Descartavel Econopot 200ml C/100un</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 4,98</t>
+          <t>R$ 7,89</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/170bca26-abbb-40ca-908a-a7e1af66c223.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7898965262327</t>
         </is>
       </c>
     </row>
@@ -3728,17 +4338,22 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Balao Latex Festa Ali F Aniv N07</t>
+          <t>Copo Descartavel Econopot 50ml C/100un</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f6aa7415-de40-4dd3-b3b1-b9ca7aed4048.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7898965262679</t>
         </is>
       </c>
     </row>
@@ -3755,17 +4370,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Balao Latex N7 Festa Ali Amar</t>
+          <t>Assadeira Aluminio Oval Life Clean 4l</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0993a6e7-fe20-4103-9e2a-6e6def982c89.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7898958607968</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Copinho/docinho C/colher Festa Ali C/10</t>
+          <t>Assadeira Aluminio Oval Life Clean 7l</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/74621d9c-5238-4731-8fc0-942a61c43e66.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7898958607975</t>
         </is>
       </c>
     </row>
@@ -3809,17 +4434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Vela Palito Festa Ali Rosa</t>
+          <t>Papel Manteiga Life Clean 30x7,5</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03392ff7-9786-4b15-9539-677da8864fe7.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7898958607289</t>
         </is>
       </c>
     </row>
@@ -3836,17 +4466,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº7 Azul</t>
+          <t>Saco P/ Freez Life Clean 19,5cmx34cm 2l</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a67d120-8192-4c3d-8a37-2fa547ccdaeb.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7898958607227</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº0 Rosa</t>
+          <t>Saco P/ Freez Life Clean 22,5cmx37cm 3l</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a20925b5-5192-4182-918f-36c7d48b6504.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7898958607234</t>
         </is>
       </c>
     </row>
@@ -3890,17 +4530,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº4 Rosa</t>
+          <t>Saco Zip Life Clean 18cmx23cm</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/20b34198-528b-45b9-a15e-ed0605262e45.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7898958607265</t>
         </is>
       </c>
     </row>
@@ -3917,17 +4562,22 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº7 Branca</t>
+          <t>Saco Zip Life Clean 27cmx31cm</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2b7da3e9-117a-4a76-b31c-2fb1a01bdbbd.jpg</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>7898958607258</t>
         </is>
       </c>
     </row>
@@ -3944,17 +4594,22 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº8 Branca</t>
+          <t>Prato Descartavel Bio Trik C/10un 20cm Branco Fundo</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 9,98</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7897816277015</t>
         </is>
       </c>
     </row>
@@ -3971,17 +4626,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº9 Rosa</t>
+          <t>Prato Descartavel Bio Trik C/10un 22cm Branco</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,49</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/03a5073f-9ec1-476a-9ed4-c9f6cae9ee14.jpg</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>7897816277107</t>
         </is>
       </c>
     </row>
@@ -3998,17 +4658,22 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Vela Skin Nº1 Un Branca</t>
+          <t>Prato Desc Bio Trik Trik C/10un 20cm Branco</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/df46bf54-c7b7-42ff-9da4-abd579bf92b0.jpg</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>7897816277015</t>
         </is>
       </c>
     </row>
@@ -4025,17 +4690,22 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Vela Skin Nº3 Un Azul</t>
+          <t>Prato Descartavel Bolo Trik 15cm C/10 Preto</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a3c17ea-c6ee-4199-9b84-749e3dfb920d.jpg</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7897816271129</t>
         </is>
       </c>
     </row>
@@ -4052,17 +4722,22 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Vela Skin Nº7 Un Branca</t>
+          <t>Prato Desc Bolo Trik 15cm C/10 Rosa</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8fc4c9b0-c4bb-4a45-ba4d-6cb34f5f9313.jpg</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7897816271105</t>
         </is>
       </c>
     </row>
@@ -4079,17 +4754,22 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Vela Skin Nº6 Un Branca</t>
+          <t>Prato Descartavel Bolo Trik 15cm C/10 Verde</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d01f8110-6a03-45a5-b3ee-b201da046326.jpg</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7897816271167</t>
         </is>
       </c>
     </row>
@@ -4106,7 +4786,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº3 Azul</t>
+          <t>Vela Big Festa Ali Nº2 Azul</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4117,6 +4797,11 @@
       <c r="E137" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>7897991608888</t>
         </is>
       </c>
     </row>
@@ -4133,17 +4818,22 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Band Laminada Festa Ali N 04</t>
+          <t>Vela Big Festa Ali Nº3 Azul</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>R$ 4,89</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>7897991608895</t>
         </is>
       </c>
     </row>
@@ -4160,17 +4850,22 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Band Laminada Festa Ali N 05</t>
+          <t>Vela Big Festa Ali Nº5 Azul</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>7897991608918</t>
         </is>
       </c>
     </row>
@@ -4187,17 +4882,22 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Band Laminada Festa Ali N 07</t>
+          <t>Vela Skin Nº0 Un Azul</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>R$ 10,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>7897991609434</t>
         </is>
       </c>
     </row>
@@ -4214,17 +4914,22 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Copo Festa Ali 200ml Azul</t>
+          <t>Vela Skin Nº0 Un Rosa</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7897991609533</t>
         </is>
       </c>
     </row>
@@ -4241,17 +4946,22 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Forma Festa Ali Brig Nº6 Rosa</t>
+          <t>Vela Skin Nº1 Un Azul</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>R$ 3,98</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7897991609342</t>
         </is>
       </c>
     </row>
@@ -4268,7 +4978,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº8 Azul</t>
+          <t>Vela Skin Nº2 Un Azul</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4279,6 +4989,11 @@
       <c r="E143" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>7897991609359</t>
         </is>
       </c>
     </row>
@@ -4295,7 +5010,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº2 Rosa</t>
+          <t>Vela Skin Nº7 Un Azul</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -4306,6 +5021,11 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>7897991609403</t>
         </is>
       </c>
     </row>
@@ -4322,17 +5042,22 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº6 Branca</t>
+          <t>Guardanapo Sorella Un 22cm X 23cm</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 4,29</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3029970d-ff4f-4a35-ad92-df76ba1bd1ca.jpg</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>7896053440305</t>
         </is>
       </c>
     </row>
@@ -4349,17 +5074,22 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº7 Rosa</t>
+          <t>Guardanapo Sorella Un 30cm X 30,5cm</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 5,49</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba28939c-738f-4427-a39e-d5a65375641a.jpg</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7896053440305</t>
         </is>
       </c>
     </row>
@@ -4376,17 +5106,22 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Vela Big Festa Ali Nº8 Rosa</t>
+          <t>Toalha De Papel Sorella C/3 Un 360 Folhas</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/82342339-9742-4323-ac76-3f19ab009ad1.jpg</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>7896053470326</t>
         </is>
       </c>
     </row>
@@ -4403,17 +5138,22 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Vela Skin Nº0 Un Branca</t>
+          <t>Toalha De Papel Sorella Un C/200 Folhas</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3700de1d-a0ad-4c60-9f16-ffbd6ac1eb18.jpg</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>7896053470326</t>
         </is>
       </c>
     </row>
@@ -4430,17 +5170,22 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Vela Skin Nº1 Un Rosa</t>
+          <t>Assadeira C/4 Bandejas Pratsy 2l</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7896300500820</t>
         </is>
       </c>
     </row>
@@ -4457,800 +5202,22 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vela Skin Nº2 Un Rosa</t>
+          <t>Sacos P/assar Pratsy C/10 Un</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº5 Un Azul</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº5 Un Branca</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº8 Un Azul</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Vela Big Festa Ali Nº2 Azul</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Vela Big Festa Ali Nº5 Azul</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº0 Un Azul</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº1 Un Azul</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº2 Un Azul</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Band Laminada Festa Ali N 06</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 8,98</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Convite Cha Bebe Festa Ali</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 0,43</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Convite Cha Cozinha Festa Ali</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 2,59</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Copo Festa Ali Bco 100ml</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 1,98</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Colher Festa Ali Cristal 24un</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>Colher Festa Ali Rosa 24un</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Vela Palito Festa Ali Un Azul</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Pratsy Churrasco 45cm 4mm</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/946365c3-1f2f-43ea-afe6-a6733fb9ff47.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Assadeira Conj C/4 Pratsy Ret</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Balao Latex Festa Ali Nº07 Laranja</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbaa2982-a787-4156-ab26-64feffc21b67.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Vela Big Festa Ali Nº9 Azul</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº3 Un Rosa</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº4 Un Azul</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº6 Un Azul</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº6 Un Rosa</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº7 Un Rosa</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº8 Un Rosa</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº9 Un Branca</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº0 Un Rosa</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Vela Skin Nº7 Un Azul</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>R$ 4,99</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>Bazar</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>Descartaveis</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>Assadeira C/4 Bandejas Pratsy 2l</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>R$ 11,99</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92b3a901-65c3-4fd8-abdb-d867937aa203.jpg</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7896300500233</t>
         </is>
       </c>
     </row>
